--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2227,28 +2227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1156.495269992751</v>
+        <v>1229.583622328799</v>
       </c>
       <c r="AB2" t="n">
-        <v>1582.367849374515</v>
+        <v>1682.370557471232</v>
       </c>
       <c r="AC2" t="n">
-        <v>1431.348882697435</v>
+        <v>1521.807472688085</v>
       </c>
       <c r="AD2" t="n">
-        <v>1156495.269992751</v>
+        <v>1229583.622328799</v>
       </c>
       <c r="AE2" t="n">
-        <v>1582367.849374515</v>
+        <v>1682370.557471232</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.233458669935204e-06</v>
+        <v>2.282221476657851e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.32096354166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1431348.882697435</v>
+        <v>1521807.472688085</v>
       </c>
     </row>
     <row r="3">
@@ -2333,28 +2333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>541.7681454887444</v>
+        <v>590.5505479434571</v>
       </c>
       <c r="AB3" t="n">
-        <v>741.2710777814232</v>
+        <v>808.0173129476676</v>
       </c>
       <c r="AC3" t="n">
-        <v>670.5252064984554</v>
+        <v>730.9012746593631</v>
       </c>
       <c r="AD3" t="n">
-        <v>541768.1454887444</v>
+        <v>590550.5479434571</v>
       </c>
       <c r="AE3" t="n">
-        <v>741271.0777814232</v>
+        <v>808017.3129476677</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.935944706767577e-06</v>
+        <v>3.582004565778559e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.849934895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>670525.2064984554</v>
+        <v>730901.2746593631</v>
       </c>
     </row>
     <row r="4">
@@ -2439,28 +2439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>420.6654413712971</v>
+        <v>469.3625029714381</v>
       </c>
       <c r="AB4" t="n">
-        <v>575.5730153336932</v>
+        <v>642.2024833777402</v>
       </c>
       <c r="AC4" t="n">
-        <v>520.6411345720455</v>
+        <v>580.9115797010143</v>
       </c>
       <c r="AD4" t="n">
-        <v>420665.4413712971</v>
+        <v>469362.5029714381</v>
       </c>
       <c r="AE4" t="n">
-        <v>575573.0153336932</v>
+        <v>642202.4833777403</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.215109147241899e-06</v>
+        <v>4.098531869934715e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.8603515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>520641.1345720455</v>
+        <v>580911.5797010142</v>
       </c>
     </row>
     <row r="5">
@@ -2545,28 +2545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>373.8228145989223</v>
+        <v>410.3243650939362</v>
       </c>
       <c r="AB5" t="n">
-        <v>511.4808668328867</v>
+        <v>561.4238985549208</v>
       </c>
       <c r="AC5" t="n">
-        <v>462.6658507702605</v>
+        <v>507.8423896402289</v>
       </c>
       <c r="AD5" t="n">
-        <v>373822.8145989223</v>
+        <v>410324.3650939362</v>
       </c>
       <c r="AE5" t="n">
-        <v>511480.8668328867</v>
+        <v>561423.8985549208</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.339099239867283e-06</v>
+        <v>4.327946003687015e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.497395833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>462665.8507702605</v>
+        <v>507842.3896402289</v>
       </c>
     </row>
     <row r="6">
@@ -2651,28 +2651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>375.0976059103131</v>
+        <v>411.5991564053269</v>
       </c>
       <c r="AB6" t="n">
-        <v>513.2250925449549</v>
+        <v>563.168124266989</v>
       </c>
       <c r="AC6" t="n">
-        <v>464.2436100284052</v>
+        <v>509.4201488983736</v>
       </c>
       <c r="AD6" t="n">
-        <v>375097.6059103131</v>
+        <v>411599.1564053269</v>
       </c>
       <c r="AE6" t="n">
-        <v>513225.092544955</v>
+        <v>563168.1242669891</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.343394077413042e-06</v>
+        <v>4.335892577597109e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.484375</v>
       </c>
       <c r="AH6" t="n">
-        <v>464243.6100284051</v>
+        <v>509420.1488983736</v>
       </c>
     </row>
   </sheetData>
@@ -2948,28 +2948,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>797.9007103430966</v>
+        <v>856.634019660662</v>
       </c>
       <c r="AB2" t="n">
-        <v>1091.722952786411</v>
+        <v>1172.084457725439</v>
       </c>
       <c r="AC2" t="n">
-        <v>987.5304464152631</v>
+        <v>1060.22236211099</v>
       </c>
       <c r="AD2" t="n">
-        <v>797900.7103430966</v>
+        <v>856634.019660662</v>
       </c>
       <c r="AE2" t="n">
-        <v>1091722.952786411</v>
+        <v>1172084.457725439</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.518619405946371e-06</v>
+        <v>2.894722959909303e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.3515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>987530.4464152631</v>
+        <v>1060222.36211099</v>
       </c>
     </row>
     <row r="3">
@@ -3054,28 +3054,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>426.8844358244546</v>
+        <v>462.1756617311573</v>
       </c>
       <c r="AB3" t="n">
-        <v>584.0821179071751</v>
+        <v>632.3691301317297</v>
       </c>
       <c r="AC3" t="n">
-        <v>528.3381403385147</v>
+        <v>572.016707887605</v>
       </c>
       <c r="AD3" t="n">
-        <v>426884.4358244546</v>
+        <v>462175.6617311573</v>
       </c>
       <c r="AE3" t="n">
-        <v>584082.1179071751</v>
+        <v>632369.1301317296</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.185931081560661e-06</v>
+        <v>4.166722001441668e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.1923828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>528338.1403385147</v>
+        <v>572016.7078876049</v>
       </c>
     </row>
     <row r="4">
@@ -3160,28 +3160,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>348.8127502125609</v>
+        <v>384.1892274652841</v>
       </c>
       <c r="AB4" t="n">
-        <v>477.2609933732981</v>
+        <v>525.6646502505018</v>
       </c>
       <c r="AC4" t="n">
-        <v>431.7118740057609</v>
+        <v>475.4959538055635</v>
       </c>
       <c r="AD4" t="n">
-        <v>348812.7502125609</v>
+        <v>384189.2274652842</v>
       </c>
       <c r="AE4" t="n">
-        <v>477260.9933732981</v>
+        <v>525664.6502505018</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.387505761978525e-06</v>
+        <v>4.550954451822048e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.585286458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>431711.8740057609</v>
+        <v>475495.9538055635</v>
       </c>
     </row>
     <row r="5">
@@ -3266,28 +3266,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>349.495071706177</v>
+        <v>384.8715489589003</v>
       </c>
       <c r="AB5" t="n">
-        <v>478.1945757427633</v>
+        <v>526.5982326199671</v>
       </c>
       <c r="AC5" t="n">
-        <v>432.5563565841755</v>
+        <v>476.3404363839781</v>
       </c>
       <c r="AD5" t="n">
-        <v>349495.071706177</v>
+        <v>384871.5489589003</v>
       </c>
       <c r="AE5" t="n">
-        <v>478194.5757427634</v>
+        <v>526598.2326199671</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.390596509354361e-06</v>
+        <v>4.556845893322849e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.575520833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>432556.3565841755</v>
+        <v>476340.4363839781</v>
       </c>
     </row>
   </sheetData>
@@ -3563,28 +3563,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>313.6202921678353</v>
+        <v>355.3034699320066</v>
       </c>
       <c r="AB2" t="n">
-        <v>429.1091196948313</v>
+        <v>486.1418824437882</v>
       </c>
       <c r="AC2" t="n">
-        <v>388.155547569588</v>
+        <v>439.7451834877696</v>
       </c>
       <c r="AD2" t="n">
-        <v>313620.2921678353</v>
+        <v>355303.4699320066</v>
       </c>
       <c r="AE2" t="n">
-        <v>429109.1196948314</v>
+        <v>486141.8824437882</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.39100488799351e-06</v>
+        <v>5.092214678431136e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.337239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>388155.5475695879</v>
+        <v>439745.1834877696</v>
       </c>
     </row>
     <row r="3">
@@ -3669,28 +3669,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>310.2112584324685</v>
+        <v>351.8944361966398</v>
       </c>
       <c r="AB3" t="n">
-        <v>424.4447293421486</v>
+        <v>481.4774920911054</v>
       </c>
       <c r="AC3" t="n">
-        <v>383.9363200856522</v>
+        <v>435.5259560038338</v>
       </c>
       <c r="AD3" t="n">
-        <v>310211.2584324685</v>
+        <v>351894.4361966398</v>
       </c>
       <c r="AE3" t="n">
-        <v>424444.7293421486</v>
+        <v>481477.4920911054</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.412883364092796e-06</v>
+        <v>5.138810106861224e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.2705078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>383936.3200856522</v>
+        <v>435525.9560038338</v>
       </c>
     </row>
   </sheetData>
@@ -3966,28 +3966,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>433.1873661307012</v>
+        <v>476.9892989694819</v>
       </c>
       <c r="AB2" t="n">
-        <v>592.7060652178418</v>
+        <v>652.6378021327562</v>
       </c>
       <c r="AC2" t="n">
-        <v>536.1390302216373</v>
+        <v>590.3509662801134</v>
       </c>
       <c r="AD2" t="n">
-        <v>433187.3661307011</v>
+        <v>476989.2989694819</v>
       </c>
       <c r="AE2" t="n">
-        <v>592706.0652178418</v>
+        <v>652637.8021327562</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.091704009556721e-06</v>
+        <v>4.246882307704312e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.0224609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>536139.0302216373</v>
+        <v>590350.9662801134</v>
       </c>
     </row>
     <row r="3">
@@ -4072,28 +4072,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>313.9124451801704</v>
+        <v>357.7142885104001</v>
       </c>
       <c r="AB3" t="n">
-        <v>429.5088563351894</v>
+        <v>489.4404707805555</v>
       </c>
       <c r="AC3" t="n">
-        <v>388.5171339060242</v>
+        <v>442.7289591832736</v>
       </c>
       <c r="AD3" t="n">
-        <v>313912.4451801704</v>
+        <v>357714.2885104001</v>
       </c>
       <c r="AE3" t="n">
-        <v>429508.8563351894</v>
+        <v>489440.4707805554</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.436283040460183e-06</v>
+        <v>4.946496872319473e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.888020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>388517.1339060242</v>
+        <v>442728.9591832735</v>
       </c>
     </row>
   </sheetData>
@@ -4369,28 +4369,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>303.1286890570258</v>
+        <v>343.3146422449998</v>
       </c>
       <c r="AB2" t="n">
-        <v>414.7540454617594</v>
+        <v>469.7382394926764</v>
       </c>
       <c r="AC2" t="n">
-        <v>375.1705014738471</v>
+        <v>424.9070811972545</v>
       </c>
       <c r="AD2" t="n">
-        <v>303128.6890570258</v>
+        <v>343314.6422449998</v>
       </c>
       <c r="AE2" t="n">
-        <v>414754.0454617594</v>
+        <v>469738.2394926765</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.332036685415829e-06</v>
+        <v>5.192990195591659e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.8125</v>
       </c>
       <c r="AH2" t="n">
-        <v>375170.5014738471</v>
+        <v>424907.0811972545</v>
       </c>
     </row>
   </sheetData>
@@ -4666,28 +4666,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>870.16926078756</v>
+        <v>941.3473018985395</v>
       </c>
       <c r="AB2" t="n">
-        <v>1190.603971767955</v>
+        <v>1287.99290776955</v>
       </c>
       <c r="AC2" t="n">
-        <v>1076.97439972559</v>
+        <v>1165.068672361423</v>
       </c>
       <c r="AD2" t="n">
-        <v>870169.26078756</v>
+        <v>941347.3018985395</v>
       </c>
       <c r="AE2" t="n">
-        <v>1190603.971767955</v>
+        <v>1287992.90776955</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.442665187956132e-06</v>
+        <v>2.727738923374378e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.79915364583333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1076974.39972559</v>
+        <v>1165068.672361423</v>
       </c>
     </row>
     <row r="3">
@@ -4772,28 +4772,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>455.6841542593838</v>
+        <v>503.0224833691589</v>
       </c>
       <c r="AB3" t="n">
-        <v>623.4871632237514</v>
+        <v>688.2575535314328</v>
       </c>
       <c r="AC3" t="n">
-        <v>563.9824234354053</v>
+        <v>622.5712185979354</v>
       </c>
       <c r="AD3" t="n">
-        <v>455684.1542593838</v>
+        <v>503022.4833691589</v>
       </c>
       <c r="AE3" t="n">
-        <v>623487.1632237514</v>
+        <v>688257.5535314328</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.116904411945184e-06</v>
+        <v>4.002565952053326e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.360026041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>563982.4234354052</v>
+        <v>622571.2185979354</v>
       </c>
     </row>
     <row r="4">
@@ -4878,28 +4878,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>359.9705605760497</v>
+        <v>395.6875924133969</v>
       </c>
       <c r="AB4" t="n">
-        <v>492.5276017604755</v>
+        <v>541.3972204445696</v>
       </c>
       <c r="AC4" t="n">
-        <v>445.5214587152857</v>
+        <v>489.7270295811103</v>
       </c>
       <c r="AD4" t="n">
-        <v>359970.5605760497</v>
+        <v>395687.5924133969</v>
       </c>
       <c r="AE4" t="n">
-        <v>492527.6017604755</v>
+        <v>541397.2204445696</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.360315875120107e-06</v>
+        <v>4.462799503150795e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.599934895833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>445521.4587152857</v>
+        <v>489727.0295811103</v>
       </c>
     </row>
     <row r="5">
@@ -4984,28 +4984,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>354.7804929729444</v>
+        <v>390.4975248102916</v>
       </c>
       <c r="AB5" t="n">
-        <v>485.4263222962841</v>
+        <v>534.2959409803781</v>
       </c>
       <c r="AC5" t="n">
-        <v>439.0979153964483</v>
+        <v>483.303486262273</v>
       </c>
       <c r="AD5" t="n">
-        <v>354780.4929729444</v>
+        <v>390497.5248102916</v>
       </c>
       <c r="AE5" t="n">
-        <v>485426.3222962841</v>
+        <v>534295.9409803781</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.38032098554227e-06</v>
+        <v>4.500624439123808e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.544596354166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>439097.9153964483</v>
+        <v>483303.486262273</v>
       </c>
     </row>
   </sheetData>
@@ -5281,28 +5281,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>313.3669838165258</v>
+        <v>352.4800884097003</v>
       </c>
       <c r="AB2" t="n">
-        <v>428.7625320333939</v>
+        <v>482.2788072861668</v>
       </c>
       <c r="AC2" t="n">
-        <v>387.8420377481193</v>
+        <v>436.2507948013316</v>
       </c>
       <c r="AD2" t="n">
-        <v>313366.9838165258</v>
+        <v>352480.0884097003</v>
       </c>
       <c r="AE2" t="n">
-        <v>428762.5320333939</v>
+        <v>482278.8072861668</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.251507814505636e-06</v>
+        <v>5.161731948812785e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.28125</v>
       </c>
       <c r="AH2" t="n">
-        <v>387842.0377481193</v>
+        <v>436250.7948013316</v>
       </c>
     </row>
   </sheetData>
@@ -5578,28 +5578,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>599.435805256753</v>
+        <v>645.017057431932</v>
       </c>
       <c r="AB2" t="n">
-        <v>820.1745139936066</v>
+        <v>882.5407941226102</v>
       </c>
       <c r="AC2" t="n">
-        <v>741.8982095002165</v>
+        <v>798.3123393853316</v>
       </c>
       <c r="AD2" t="n">
-        <v>599435.805256753</v>
+        <v>645017.0574319321</v>
       </c>
       <c r="AE2" t="n">
-        <v>820174.5139936067</v>
+        <v>882540.7941226102</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.774920296750212e-06</v>
+        <v>3.478819252348737e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.1259765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>741898.2095002164</v>
+        <v>798312.3393853316</v>
       </c>
     </row>
     <row r="3">
@@ -5684,28 +5684,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>340.2639515273264</v>
+        <v>385.7597733393828</v>
       </c>
       <c r="AB3" t="n">
-        <v>465.56414986578</v>
+        <v>527.8135404030373</v>
       </c>
       <c r="AC3" t="n">
-        <v>421.1313608259774</v>
+        <v>477.4397568979273</v>
       </c>
       <c r="AD3" t="n">
-        <v>340263.9515273264</v>
+        <v>385759.7733393828</v>
       </c>
       <c r="AE3" t="n">
-        <v>465564.14986578</v>
+        <v>527813.5404030373</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.384340116064985e-06</v>
+        <v>4.673273676063901e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.793619791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>421131.3608259774</v>
+        <v>477439.7568979273</v>
       </c>
     </row>
     <row r="4">
@@ -5790,28 +5790,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>330.5272821927282</v>
+        <v>376.0231040047845</v>
       </c>
       <c r="AB4" t="n">
-        <v>452.2420093306478</v>
+        <v>514.4913998679052</v>
       </c>
       <c r="AC4" t="n">
-        <v>409.0806666857766</v>
+        <v>465.3890627577264</v>
       </c>
       <c r="AD4" t="n">
-        <v>330527.2821927282</v>
+        <v>376023.1040047845</v>
       </c>
       <c r="AE4" t="n">
-        <v>452242.0093306478</v>
+        <v>514491.3998679052</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.422453733112268e-06</v>
+        <v>4.747975838748896e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.686197916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>409080.6666857766</v>
+        <v>465389.0627577264</v>
       </c>
     </row>
   </sheetData>
@@ -6087,28 +6087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>718.2307684169485</v>
+        <v>787.9353503038327</v>
       </c>
       <c r="AB2" t="n">
-        <v>982.7150234532791</v>
+        <v>1078.087907540033</v>
       </c>
       <c r="AC2" t="n">
-        <v>888.9260808640955</v>
+        <v>975.1967107502937</v>
       </c>
       <c r="AD2" t="n">
-        <v>718230.7684169485</v>
+        <v>787935.3503038327</v>
       </c>
       <c r="AE2" t="n">
-        <v>982715.023453279</v>
+        <v>1078087.907540034</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.600321125426763e-06</v>
+        <v>3.076942358828068e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.9169921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>888926.0808640955</v>
+        <v>975196.7107502937</v>
       </c>
     </row>
     <row r="3">
@@ -6193,28 +6193,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>398.2203110999172</v>
+        <v>433.1580324064821</v>
       </c>
       <c r="AB3" t="n">
-        <v>544.8625978871293</v>
+        <v>592.6659295222527</v>
       </c>
       <c r="AC3" t="n">
-        <v>492.8616762642399</v>
+        <v>536.1027250205045</v>
       </c>
       <c r="AD3" t="n">
-        <v>398220.3110999172</v>
+        <v>433158.032406482</v>
       </c>
       <c r="AE3" t="n">
-        <v>544862.5978871293</v>
+        <v>592665.9295222526</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.257590649980581e-06</v>
+        <v>4.340676498891433e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.029622395833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>492861.6762642399</v>
+        <v>536102.7250205046</v>
       </c>
     </row>
     <row r="4">
@@ -6299,28 +6299,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>341.8302228659322</v>
+        <v>376.8531955185175</v>
       </c>
       <c r="AB4" t="n">
-        <v>467.7071914102751</v>
+        <v>515.6271676980477</v>
       </c>
       <c r="AC4" t="n">
-        <v>423.0698734932435</v>
+        <v>466.4164345002205</v>
       </c>
       <c r="AD4" t="n">
-        <v>341830.2228659322</v>
+        <v>376853.1955185175</v>
       </c>
       <c r="AE4" t="n">
-        <v>467707.1914102751</v>
+        <v>515627.1676980478</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.404820583532913e-06</v>
+        <v>4.623755945782945e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.598307291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>423069.8734932435</v>
+        <v>466416.4345002205</v>
       </c>
     </row>
     <row r="5">
@@ -6405,28 +6405,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>343.268153957279</v>
+        <v>378.2911266098644</v>
       </c>
       <c r="AB5" t="n">
-        <v>469.6746321664983</v>
+        <v>517.5946084542711</v>
       </c>
       <c r="AC5" t="n">
-        <v>424.8495444650133</v>
+        <v>468.1961054719901</v>
       </c>
       <c r="AD5" t="n">
-        <v>343268.153957279</v>
+        <v>378291.1266098644</v>
       </c>
       <c r="AE5" t="n">
-        <v>469674.6321664983</v>
+        <v>517594.6084542711</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.404235563929393e-06</v>
+        <v>4.622631126788674e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.599934895833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>424849.5444650133</v>
+        <v>468196.1054719901</v>
       </c>
     </row>
   </sheetData>
@@ -6702,28 +6702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1046.50664615176</v>
+        <v>1119.063778787977</v>
       </c>
       <c r="AB2" t="n">
-        <v>1431.876561879649</v>
+        <v>1531.152431747298</v>
       </c>
       <c r="AC2" t="n">
-        <v>1295.220272465231</v>
+        <v>1385.021392647271</v>
       </c>
       <c r="AD2" t="n">
-        <v>1046506.64615176</v>
+        <v>1119063.778787977</v>
       </c>
       <c r="AE2" t="n">
-        <v>1431876.561879649</v>
+        <v>1531152.431747298</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.301574561498412e-06</v>
+        <v>2.424734688295176e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.767578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1295220.272465231</v>
+        <v>1385021.392647271</v>
       </c>
     </row>
     <row r="3">
@@ -6808,28 +6808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>512.4376709761365</v>
+        <v>560.8090927336146</v>
       </c>
       <c r="AB3" t="n">
-        <v>701.1398285840613</v>
+        <v>767.3237418291611</v>
       </c>
       <c r="AC3" t="n">
-        <v>634.2240273999276</v>
+        <v>694.0914408546206</v>
       </c>
       <c r="AD3" t="n">
-        <v>512437.6709761365</v>
+        <v>560809.0927336146</v>
       </c>
       <c r="AE3" t="n">
-        <v>701139.8285840614</v>
+        <v>767323.7418291611</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.993677188053677e-06</v>
+        <v>3.714069388058206e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.682291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>634224.0273999276</v>
+        <v>694091.4408546207</v>
       </c>
     </row>
     <row r="4">
@@ -6914,28 +6914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>398.030207064511</v>
+        <v>446.3162879674177</v>
       </c>
       <c r="AB4" t="n">
-        <v>544.6024891590885</v>
+        <v>610.6696352819904</v>
       </c>
       <c r="AC4" t="n">
-        <v>492.6263919481385</v>
+        <v>552.3881823708925</v>
       </c>
       <c r="AD4" t="n">
-        <v>398030.207064511</v>
+        <v>446316.2879674177</v>
       </c>
       <c r="AE4" t="n">
-        <v>544602.4891590885</v>
+        <v>610669.6352819904</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.268014848702113e-06</v>
+        <v>4.225139642315649e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.754557291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>492626.3919481385</v>
+        <v>552388.1823708925</v>
       </c>
     </row>
     <row r="5">
@@ -7020,28 +7020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>366.7949993612984</v>
+        <v>403.1589065339786</v>
       </c>
       <c r="AB5" t="n">
-        <v>501.8650999794432</v>
+        <v>551.6198020354657</v>
       </c>
       <c r="AC5" t="n">
-        <v>453.9677992094962</v>
+        <v>498.9739823324546</v>
       </c>
       <c r="AD5" t="n">
-        <v>366794.9993612984</v>
+        <v>403158.9065339785</v>
       </c>
       <c r="AE5" t="n">
-        <v>501865.0999794432</v>
+        <v>551619.8020354657</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.356480509425794e-06</v>
+        <v>4.389944458439833e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.500651041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>453967.7992094962</v>
+        <v>498973.9823324546</v>
       </c>
     </row>
     <row r="6">
@@ -7126,28 +7126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>367.2477427671879</v>
+        <v>403.4410577392759</v>
       </c>
       <c r="AB6" t="n">
-        <v>502.4845634810109</v>
+        <v>552.0058537621862</v>
       </c>
       <c r="AC6" t="n">
-        <v>454.5281419838965</v>
+        <v>499.323189824204</v>
       </c>
       <c r="AD6" t="n">
-        <v>367247.7427671879</v>
+        <v>403441.057739276</v>
       </c>
       <c r="AE6" t="n">
-        <v>502484.5634810108</v>
+        <v>552005.8537621862</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.359021544361475e-06</v>
+        <v>4.394678213796592e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.494140625</v>
       </c>
       <c r="AH6" t="n">
-        <v>454528.1419838965</v>
+        <v>499323.189824204</v>
       </c>
     </row>
   </sheetData>
@@ -7423,28 +7423,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>481.6501618129651</v>
+        <v>526.0468444233808</v>
       </c>
       <c r="AB2" t="n">
-        <v>659.0150002979664</v>
+        <v>719.7605000889397</v>
       </c>
       <c r="AC2" t="n">
-        <v>596.1195336028899</v>
+        <v>651.0675681506572</v>
       </c>
       <c r="AD2" t="n">
-        <v>481650.1618129651</v>
+        <v>526046.8444233808</v>
       </c>
       <c r="AE2" t="n">
-        <v>659015.0002979664</v>
+        <v>719760.5000889397</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.978575289501975e-06</v>
+        <v>3.966048934404552e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.375651041666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>596119.5336028899</v>
+        <v>651067.5681506571</v>
       </c>
     </row>
     <row r="3">
@@ -7529,28 +7529,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>317.9769797726395</v>
+        <v>362.373572874504</v>
       </c>
       <c r="AB3" t="n">
-        <v>435.0701318792165</v>
+        <v>495.8155092006413</v>
       </c>
       <c r="AC3" t="n">
-        <v>393.5476491174285</v>
+        <v>448.495572883969</v>
       </c>
       <c r="AD3" t="n">
-        <v>317976.9797726395</v>
+        <v>362373.572874504</v>
       </c>
       <c r="AE3" t="n">
-        <v>435070.1318792165</v>
+        <v>495815.5092006413</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.436031100531275e-06</v>
+        <v>4.883017897625858e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.8017578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>393547.6491174285</v>
+        <v>448495.5728839691</v>
       </c>
     </row>
     <row r="4">
@@ -7635,28 +7635,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>319.5945805413979</v>
+        <v>363.9911736432625</v>
       </c>
       <c r="AB4" t="n">
-        <v>437.2834046145412</v>
+        <v>498.028781935966</v>
       </c>
       <c r="AC4" t="n">
-        <v>395.5496902092416</v>
+        <v>450.4976139757822</v>
       </c>
       <c r="AD4" t="n">
-        <v>319594.5805413979</v>
+        <v>363991.1736432625</v>
       </c>
       <c r="AE4" t="n">
-        <v>437283.4046145412</v>
+        <v>498028.781935966</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.436234730983546e-06</v>
+        <v>4.883426074328827e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.8017578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>395549.6902092416</v>
+        <v>450497.6139757822</v>
       </c>
     </row>
   </sheetData>
@@ -7932,28 +7932,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>337.7339634198112</v>
+        <v>380.1443672467072</v>
       </c>
       <c r="AB2" t="n">
-        <v>462.1025085218797</v>
+        <v>520.130294052806</v>
       </c>
       <c r="AC2" t="n">
-        <v>418.0000936734948</v>
+        <v>470.489788795858</v>
       </c>
       <c r="AD2" t="n">
-        <v>337733.9634198112</v>
+        <v>380144.3672467072</v>
       </c>
       <c r="AE2" t="n">
-        <v>462102.5085218797</v>
+        <v>520130.294052806</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.326269924736954e-06</v>
+        <v>4.866702162625034e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.420247395833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>418000.0936734948</v>
+        <v>470489.788795858</v>
       </c>
     </row>
     <row r="3">
@@ -8038,28 +8038,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>314.8183850865262</v>
+        <v>346.7542216156934</v>
       </c>
       <c r="AB3" t="n">
-        <v>430.7484032823133</v>
+        <v>474.4444237311917</v>
       </c>
       <c r="AC3" t="n">
-        <v>389.6383802322296</v>
+        <v>429.1641138172168</v>
       </c>
       <c r="AD3" t="n">
-        <v>314818.3850865262</v>
+        <v>346754.2216156934</v>
       </c>
       <c r="AE3" t="n">
-        <v>430748.4032823134</v>
+        <v>474444.4237311917</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.427767158163291e-06</v>
+        <v>5.079040722378482e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.111002604166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>389638.3802322296</v>
+        <v>429164.1138172168</v>
       </c>
     </row>
   </sheetData>
@@ -13748,28 +13748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>305.3594706302829</v>
+        <v>346.2504192412667</v>
       </c>
       <c r="AB2" t="n">
-        <v>417.8062992254269</v>
+        <v>473.755099096309</v>
       </c>
       <c r="AC2" t="n">
-        <v>377.9314524221752</v>
+        <v>428.5405773580142</v>
       </c>
       <c r="AD2" t="n">
-        <v>305359.4706302829</v>
+        <v>346250.4192412667</v>
       </c>
       <c r="AE2" t="n">
-        <v>417806.2992254269</v>
+        <v>473755.099096309</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.381953396891357e-06</v>
+        <v>5.178023135362336e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.496744791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>377931.4524221752</v>
+        <v>428540.5773580142</v>
       </c>
     </row>
     <row r="3">
@@ -13854,28 +13854,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>307.4937555101167</v>
+        <v>348.3847041211005</v>
       </c>
       <c r="AB3" t="n">
-        <v>420.726521956019</v>
+        <v>476.6753218269012</v>
       </c>
       <c r="AC3" t="n">
-        <v>380.5729731939181</v>
+        <v>431.182098129757</v>
       </c>
       <c r="AD3" t="n">
-        <v>307493.7555101167</v>
+        <v>348384.7041211005</v>
       </c>
       <c r="AE3" t="n">
-        <v>420726.521956019</v>
+        <v>476675.3218269012</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.382721379654852e-06</v>
+        <v>5.17969261912391e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.493489583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>380572.9731939181</v>
+        <v>431182.098129757</v>
       </c>
     </row>
   </sheetData>
@@ -14151,28 +14151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>328.6570660841515</v>
+        <v>366.7066649568649</v>
       </c>
       <c r="AB2" t="n">
-        <v>449.6830971427816</v>
+        <v>501.7442369502585</v>
       </c>
       <c r="AC2" t="n">
-        <v>406.7659734856646</v>
+        <v>453.8584711781845</v>
       </c>
       <c r="AD2" t="n">
-        <v>328657.0660841515</v>
+        <v>366706.6649568648</v>
       </c>
       <c r="AE2" t="n">
-        <v>449683.0971427816</v>
+        <v>501744.2369502585</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.101795683929005e-06</v>
+        <v>4.999177706041542e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.117838541666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>406765.9734856646</v>
+        <v>453858.4711781845</v>
       </c>
     </row>
   </sheetData>
@@ -14448,28 +14448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>656.7034926121498</v>
+        <v>714.3197741179177</v>
       </c>
       <c r="AB2" t="n">
-        <v>898.5306903053173</v>
+        <v>977.3638285124541</v>
       </c>
       <c r="AC2" t="n">
-        <v>812.7761823183216</v>
+        <v>884.0855964579736</v>
       </c>
       <c r="AD2" t="n">
-        <v>656703.4926121498</v>
+        <v>714319.7741179178</v>
       </c>
       <c r="AE2" t="n">
-        <v>898530.6903053173</v>
+        <v>977363.8285124542</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.684935144832721e-06</v>
+        <v>3.26974840203195e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.513346354166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>812776.1823183217</v>
+        <v>884085.5964579736</v>
       </c>
     </row>
     <row r="3">
@@ -14554,28 +14554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>361.8266284031569</v>
+        <v>407.8343127531996</v>
       </c>
       <c r="AB3" t="n">
-        <v>495.067155645457</v>
+        <v>558.0168990889689</v>
       </c>
       <c r="AC3" t="n">
-        <v>447.8186411417708</v>
+        <v>504.7605494215536</v>
       </c>
       <c r="AD3" t="n">
-        <v>361826.6284031569</v>
+        <v>407834.3127531996</v>
       </c>
       <c r="AE3" t="n">
-        <v>495067.155645457</v>
+        <v>558016.8990889689</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.323851522370693e-06</v>
+        <v>4.509615592703095e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.897786458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>447818.6411417708</v>
+        <v>504760.5494215536</v>
       </c>
     </row>
     <row r="4">
@@ -14660,28 +14660,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>336.6845129874796</v>
+        <v>382.6921973375223</v>
       </c>
       <c r="AB4" t="n">
-        <v>460.6666041418781</v>
+        <v>523.6163475853898</v>
       </c>
       <c r="AC4" t="n">
-        <v>416.7012299922161</v>
+        <v>473.6431382719989</v>
       </c>
       <c r="AD4" t="n">
-        <v>336684.5129874796</v>
+        <v>382692.1973375223</v>
       </c>
       <c r="AE4" t="n">
-        <v>460666.6041418781</v>
+        <v>523616.3475853899</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.412086583140425e-06</v>
+        <v>4.680842627666311e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.6455078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>416701.2299922161</v>
+        <v>473643.1382719989</v>
       </c>
     </row>
   </sheetData>
@@ -14957,28 +14957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>961.5427785142602</v>
+        <v>1033.293170538415</v>
       </c>
       <c r="AB2" t="n">
-        <v>1315.625249836727</v>
+        <v>1413.797301608068</v>
       </c>
       <c r="AC2" t="n">
-        <v>1190.063822483944</v>
+        <v>1278.866471419569</v>
       </c>
       <c r="AD2" t="n">
-        <v>961542.7785142602</v>
+        <v>1033293.170538415</v>
       </c>
       <c r="AE2" t="n">
-        <v>1315625.249836727</v>
+        <v>1413797.301608068</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.369812423782663e-06</v>
+        <v>2.570305387508073e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.27604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1190063.822483944</v>
+        <v>1278866.471419569</v>
       </c>
     </row>
     <row r="3">
@@ -15063,28 +15063,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>483.028376107426</v>
+        <v>530.9756989239239</v>
       </c>
       <c r="AB3" t="n">
-        <v>660.9007338981713</v>
+        <v>726.504376262297</v>
       </c>
       <c r="AC3" t="n">
-        <v>597.8252954349349</v>
+        <v>657.1678182471187</v>
       </c>
       <c r="AD3" t="n">
-        <v>483028.376107426</v>
+        <v>530975.6989239239</v>
       </c>
       <c r="AE3" t="n">
-        <v>660900.7338981713</v>
+        <v>726504.376262297</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.05533545456936e-06</v>
+        <v>3.856615475444223e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.5146484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>597825.2954349349</v>
+        <v>657167.8182471187</v>
       </c>
     </row>
     <row r="4">
@@ -15169,28 +15169,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>377.5584577293389</v>
+        <v>425.4204396912651</v>
       </c>
       <c r="AB4" t="n">
-        <v>516.5921385688663</v>
+        <v>582.0790138107942</v>
       </c>
       <c r="AC4" t="n">
-        <v>467.2893099054731</v>
+        <v>526.5262096857182</v>
       </c>
       <c r="AD4" t="n">
-        <v>377558.4577293389</v>
+        <v>425420.4396912651</v>
       </c>
       <c r="AE4" t="n">
-        <v>516592.1385688663</v>
+        <v>582079.0138107942</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.318669675282688e-06</v>
+        <v>4.350733760884812e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.661783854166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>467289.3099054731</v>
+        <v>526526.2096857182</v>
       </c>
     </row>
     <row r="5">
@@ -15275,28 +15275,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>359.39601266981</v>
+        <v>395.441845636755</v>
       </c>
       <c r="AB5" t="n">
-        <v>491.7414799678937</v>
+        <v>541.0609788631856</v>
       </c>
       <c r="AC5" t="n">
-        <v>444.8103632832589</v>
+        <v>489.4228784243356</v>
       </c>
       <c r="AD5" t="n">
-        <v>359396.01266981</v>
+        <v>395441.8456367551</v>
       </c>
       <c r="AE5" t="n">
-        <v>491741.4799678937</v>
+        <v>541060.9788631856</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.370197776849296e-06</v>
+        <v>4.447420690252105e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.516927083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>444810.3632832589</v>
+        <v>489422.8784243356</v>
       </c>
     </row>
   </sheetData>
@@ -15572,28 +15572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>355.3027748078846</v>
+        <v>410.1785917327133</v>
       </c>
       <c r="AB2" t="n">
-        <v>486.1409313442977</v>
+        <v>561.224445011029</v>
       </c>
       <c r="AC2" t="n">
-        <v>439.7443231598796</v>
+        <v>507.6619716626314</v>
       </c>
       <c r="AD2" t="n">
-        <v>355302.7748078846</v>
+        <v>410178.5917327133</v>
       </c>
       <c r="AE2" t="n">
-        <v>486140.9313442977</v>
+        <v>561224.445011029</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.819389027386065e-06</v>
+        <v>4.550153884911343e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.908203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>439744.3231598797</v>
+        <v>507661.9716626314</v>
       </c>
     </row>
   </sheetData>
@@ -15869,28 +15869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>377.860139955763</v>
+        <v>421.1159278531346</v>
       </c>
       <c r="AB2" t="n">
-        <v>517.0049135003402</v>
+        <v>576.1893908122044</v>
       </c>
       <c r="AC2" t="n">
-        <v>467.6626901768204</v>
+        <v>521.1986840399759</v>
       </c>
       <c r="AD2" t="n">
-        <v>377860.1399557629</v>
+        <v>421115.9278531346</v>
       </c>
       <c r="AE2" t="n">
-        <v>517004.9135003402</v>
+        <v>576189.3908122043</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.208857666179217e-06</v>
+        <v>4.548664053302568e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.7001953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>467662.6901768204</v>
+        <v>521198.6840399759</v>
       </c>
     </row>
     <row r="3">
@@ -15975,28 +15975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>308.0279839067516</v>
+        <v>351.1984309495516</v>
       </c>
       <c r="AB3" t="n">
-        <v>421.4574768167884</v>
+        <v>480.5251870064548</v>
       </c>
       <c r="AC3" t="n">
-        <v>381.2341667486771</v>
+        <v>434.6645375798937</v>
       </c>
       <c r="AD3" t="n">
-        <v>308027.9839067516</v>
+        <v>351198.4309495516</v>
       </c>
       <c r="AE3" t="n">
-        <v>421457.4768167884</v>
+        <v>480525.1870064548</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.436379934420151e-06</v>
+        <v>5.017196896644876e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.982421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>381234.1667486771</v>
+        <v>434664.5375798937</v>
       </c>
     </row>
   </sheetData>
@@ -16272,28 +16272,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>531.389764430548</v>
+        <v>587.6109602198442</v>
       </c>
       <c r="AB2" t="n">
-        <v>727.070918955741</v>
+        <v>803.9952393387631</v>
       </c>
       <c r="AC2" t="n">
-        <v>657.680290901048</v>
+        <v>727.2630621106763</v>
       </c>
       <c r="AD2" t="n">
-        <v>531389.7644305479</v>
+        <v>587610.9602198441</v>
       </c>
       <c r="AE2" t="n">
-        <v>727070.918955741</v>
+        <v>803995.2393387631</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.876408326017446e-06</v>
+        <v>3.717510362722776e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.727213541666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>657680.290901048</v>
+        <v>727263.0621106763</v>
       </c>
     </row>
     <row r="3">
@@ -16378,28 +16378,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>327.1597235966468</v>
+        <v>372.1196120571693</v>
       </c>
       <c r="AB3" t="n">
-        <v>447.6343670932893</v>
+        <v>509.1504699752673</v>
       </c>
       <c r="AC3" t="n">
-        <v>404.9127713566851</v>
+        <v>460.5578637179998</v>
       </c>
       <c r="AD3" t="n">
-        <v>327159.7235966467</v>
+        <v>372119.6120571693</v>
       </c>
       <c r="AE3" t="n">
-        <v>447634.3670932893</v>
+        <v>509150.4699752673</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.418763585414381e-06</v>
+        <v>4.792015985581837e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.770833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>404912.7713566851</v>
+        <v>460557.8637179998</v>
       </c>
     </row>
     <row r="4">
@@ -16484,28 +16484,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>325.4323038304531</v>
+        <v>370.3921922909756</v>
       </c>
       <c r="AB4" t="n">
-        <v>445.2708351608014</v>
+        <v>506.7869380427796</v>
       </c>
       <c r="AC4" t="n">
-        <v>402.774811594596</v>
+        <v>458.4199039559107</v>
       </c>
       <c r="AD4" t="n">
-        <v>325432.3038304531</v>
+        <v>370392.1922909757</v>
       </c>
       <c r="AE4" t="n">
-        <v>445270.8351608014</v>
+        <v>506786.9380427796</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.429832060095951e-06</v>
+        <v>4.813944671762634e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.739908854166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>402774.811594596</v>
+        <v>458419.9039559108</v>
       </c>
     </row>
   </sheetData>
